--- a/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/Checklist - EzRent.xlsx
+++ b/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/Checklist - EzRent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a11b600c829974/Documentos/GitHub/PUCPR/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1094" documentId="8_{04329D57-3974-4948-8105-75AD99DB5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0AD850-E537-4775-A038-0E9405BDEBF4}"/>
+  <xr:revisionPtr revIDLastSave="1251" documentId="8_{04329D57-3974-4948-8105-75AD99DB5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73620C63-CE39-4481-A11F-7A42A1C20FCC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECEC2B2A-E839-4172-9AB4-40FC28EB27D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
   <si>
     <t>Descrição</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Histórico de Revisão</t>
   </si>
   <si>
-    <t>Planejamento</t>
-  </si>
-  <si>
     <t>Os milestones do projeto estão claramente definidos e incluídos no plano de teste?</t>
   </si>
   <si>
@@ -167,15 +164,6 @@
     <t>Contém as versão dos elementos de software usados para a execução do plano de teste?</t>
   </si>
   <si>
-    <t>O Cronograma está com todas as colunas preenchidas?</t>
-  </si>
-  <si>
-    <t>O Ambiente de Teste está com todas as colunas preenchidas?</t>
-  </si>
-  <si>
-    <t>O Histórico de Revisão está com todas as colunas preenchidas?</t>
-  </si>
-  <si>
     <t>Cronograma</t>
   </si>
   <si>
@@ -219,12 +207,25 @@
   </si>
   <si>
     <t>Total de Perguntas</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Pedro Fauth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +249,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +268,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -454,11 +473,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,13 +677,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,6 +710,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -667,6 +725,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,19 +1050,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECD77C1-DA4D-41EE-ACDD-1A26E3D26CDB}">
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q6"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="91" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="29" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="69" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
@@ -1035,42 +1097,43 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="62"/>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -1086,18 +1149,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="62"/>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>6</v>
@@ -1107,7 +1171,7 @@
       </c>
       <c r="L3" s="60"/>
       <c r="M3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>8</v>
@@ -1126,35 +1190,48 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="62"/>
+        <v>14</v>
+      </c>
+      <c r="G4" s="70">
+        <v>45600.825694444444</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2">
-        <v>26</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
       <c r="Q4" s="59">
         <f>N4 / (M4 - P4)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,15 +1242,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="62"/>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>12</v>
@@ -1192,19 +1270,20 @@
       <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="62"/>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="12"/>
@@ -1220,15 +1299,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="62"/>
+        <v>14</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="T7" s="24"/>
       <c r="U7" s="25"/>
@@ -1238,18 +1318,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="62"/>
+        <v>12</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="14"/>
@@ -1259,16 +1340,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="62"/>
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1280,16 +1362,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="62"/>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1304,15 +1387,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="62"/>
+        <v>15</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="T11" s="16"/>
       <c r="U11" s="23"/>
@@ -1325,15 +1409,16 @@
         <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="62"/>
+        <v>12</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="T12" s="18"/>
       <c r="U12" s="39"/>
@@ -1343,16 +1428,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="62"/>
       <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1374,13 +1460,14 @@
       <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="62"/>
+        <v>14</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="30"/>
@@ -1399,16 +1486,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="70">
+        <v>45600.808333333334</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1429,18 +1523,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="62"/>
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O16" s="27"/>
       <c r="P16" s="11"/>
@@ -1458,15 +1553,22 @@
         <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="70">
+        <v>45600.811805555553</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="O17" s="27"/>
       <c r="P17" s="11"/>
@@ -1481,18 +1583,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="62"/>
+        <v>12</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="56"/>
@@ -1507,18 +1610,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="62"/>
+        <v>14</v>
+      </c>
+      <c r="G19" s="70">
+        <v>45600.80972222222</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="56"/>
@@ -1533,16 +1643,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="62"/>
       <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1559,18 +1670,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="62"/>
+        <v>15</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="11"/>
@@ -1606,18 +1718,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="62"/>
       <c r="H22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="56"/>
@@ -1653,18 +1766,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="62"/>
+        <v>14</v>
+      </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="10"/>
@@ -1679,18 +1793,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="62"/>
+        <v>14</v>
+      </c>
+      <c r="G24" s="70">
+        <v>45600.809027777781</v>
+      </c>
       <c r="H24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="51"/>
@@ -1701,23 +1822,6 @@
       <c r="U24" s="49"/>
     </row>
     <row r="25" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O25" s="38"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="12"/>
@@ -1727,23 +1831,6 @@
       <c r="U25" s="23"/>
     </row>
     <row r="26" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O26" s="46"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="43"/>
@@ -1753,23 +1840,6 @@
       <c r="U26" s="22"/>
     </row>
     <row r="27" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O27" s="38"/>
       <c r="P27" s="31"/>
       <c r="Q27" s="44"/>
